--- a/voltDivider.xlsx
+++ b/voltDivider.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliot\Documents\GitHub\lee_5275\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="16275" windowHeight="6210"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>voltage divider</t>
   </si>
@@ -34,6 +39,9 @@
   </si>
   <si>
     <t>factor</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -81,6 +89,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -128,7 +139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -163,7 +174,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,12 +394,12 @@
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -405,7 +416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>12</v>
       </c>
@@ -423,7 +434,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>11.1</v>
       </c>
@@ -437,11 +448,11 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F8" si="0">B4/E4</f>
+        <f t="shared" ref="F4:F7" si="0">B4/E4</f>
         <v>2.4999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>24</v>
       </c>
@@ -459,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>22.2</v>
       </c>
@@ -477,7 +488,7 @@
         <v>4.9999999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>20</v>
       </c>
@@ -493,6 +504,11 @@
       <c r="F7">
         <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
